--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.454415390512692</v>
+        <v>2.436801249702838</v>
       </c>
       <c r="C2">
-        <v>1.707017846296745</v>
+        <v>1.700317937929734</v>
       </c>
       <c r="D2">
-        <v>1.462336970258782</v>
+        <v>1.457347192194637</v>
       </c>
       <c r="E2">
-        <v>1.354221659694327</v>
+        <v>1.346982622402224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.460568648052069</v>
+        <v>2.442838613609139</v>
       </c>
       <c r="C3">
-        <v>1.708951584569917</v>
+        <v>1.703193982803089</v>
       </c>
       <c r="D3">
-        <v>1.464831892796351</v>
+        <v>1.458595287136383</v>
       </c>
       <c r="E3">
-        <v>1.354350593411535</v>
+        <v>1.347828200706768</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.431528602827934</v>
+        <v>2.416199608207933</v>
       </c>
       <c r="C4">
-        <v>1.696536882978921</v>
+        <v>1.689607354824597</v>
       </c>
       <c r="D4">
-        <v>1.456966378879117</v>
+        <v>1.451431135937862</v>
       </c>
       <c r="E4">
-        <v>1.348695282420205</v>
+        <v>1.342718102337791</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.460344613082702</v>
+        <v>2.444040844258239</v>
       </c>
       <c r="C5">
-        <v>1.711819436832543</v>
+        <v>1.705018684914926</v>
       </c>
       <c r="D5">
-        <v>1.451606695417725</v>
+        <v>1.446166112413758</v>
       </c>
       <c r="E5">
-        <v>1.356253663266587</v>
+        <v>1.349992015156981</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.467534082534359</v>
+        <v>2.451383197835503</v>
       </c>
       <c r="C6">
-        <v>1.715971891455109</v>
+        <v>1.709059898859096</v>
       </c>
       <c r="D6">
-        <v>1.455061622442154</v>
+        <v>1.448580771627436</v>
       </c>
       <c r="E6">
-        <v>1.35793941789825</v>
+        <v>1.351843737668598</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.460303549337107</v>
+        <v>2.44341887967167</v>
       </c>
       <c r="C7">
-        <v>1.711167189942013</v>
+        <v>1.705004603960501</v>
       </c>
       <c r="D7">
-        <v>1.466514409088087</v>
+        <v>1.460838994595111</v>
       </c>
       <c r="E7">
-        <v>1.356560024458425</v>
+        <v>1.349955890124776</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.44194784477313</v>
+        <v>2.426137845639802</v>
       </c>
       <c r="C8">
-        <v>1.698137688113475</v>
+        <v>1.691113062267858</v>
       </c>
       <c r="D8">
-        <v>1.470025977073177</v>
+        <v>1.463289021859106</v>
       </c>
       <c r="E8">
-        <v>1.346642585030843</v>
+        <v>1.340676964773855</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.453200548605727</v>
+        <v>2.437293282939875</v>
       </c>
       <c r="C9">
-        <v>1.705258883232765</v>
+        <v>1.699213878649833</v>
       </c>
       <c r="D9">
-        <v>1.461142711977544</v>
+        <v>1.455487230471159</v>
       </c>
       <c r="E9">
-        <v>1.351395334290045</v>
+        <v>1.345344167322881</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.371611558717063</v>
+        <v>2.354271173204167</v>
       </c>
       <c r="C10">
-        <v>1.675369026510009</v>
+        <v>1.667191889118646</v>
       </c>
       <c r="D10">
-        <v>1.453766020191805</v>
+        <v>1.444906915254569</v>
       </c>
       <c r="E10">
-        <v>1.345679047477052</v>
+        <v>1.339021721330763</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.375365083439768</v>
+        <v>2.358096505327883</v>
       </c>
       <c r="C11">
-        <v>1.679974215514524</v>
+        <v>1.671843872822301</v>
       </c>
       <c r="D11">
-        <v>1.452858698496749</v>
+        <v>1.447518338027816</v>
       </c>
       <c r="E11">
-        <v>1.347693730587054</v>
+        <v>1.340293742975246</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.256228505437855</v>
+        <v>2.233541039399723</v>
       </c>
       <c r="C12">
-        <v>1.626474371498642</v>
+        <v>1.617368168486356</v>
       </c>
       <c r="D12">
-        <v>1.432434374547977</v>
+        <v>1.424266206036189</v>
       </c>
       <c r="E12">
-        <v>1.331189660757064</v>
+        <v>1.324371252076056</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.361185315973835</v>
+        <v>2.342009859240121</v>
       </c>
       <c r="C13">
-        <v>1.668071903064024</v>
+        <v>1.659963471116276</v>
       </c>
       <c r="D13">
-        <v>1.449660046854814</v>
+        <v>1.440926698548765</v>
       </c>
       <c r="E13">
-        <v>1.343162243586383</v>
+        <v>1.336020726629191</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_OV_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.436801249702838</v>
+        <v>2.436801249702837</v>
       </c>
       <c r="C2">
-        <v>1.700317937929734</v>
+        <v>1.700317937929736</v>
       </c>
       <c r="D2">
-        <v>1.457347192194637</v>
+        <v>1.457347192194636</v>
       </c>
       <c r="E2">
-        <v>1.346982622402224</v>
+        <v>1.346982622402223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -408,13 +408,13 @@
         <v>2.442838613609139</v>
       </c>
       <c r="C3">
-        <v>1.703193982803089</v>
+        <v>1.703193982803088</v>
       </c>
       <c r="D3">
         <v>1.458595287136383</v>
       </c>
       <c r="E3">
-        <v>1.347828200706768</v>
+        <v>1.34782820070677</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -425,13 +425,13 @@
         <v>2.416199608207933</v>
       </c>
       <c r="C4">
-        <v>1.689607354824597</v>
+        <v>1.689607354824598</v>
       </c>
       <c r="D4">
-        <v>1.451431135937862</v>
+        <v>1.451431135937861</v>
       </c>
       <c r="E4">
-        <v>1.342718102337791</v>
+        <v>1.342718102337792</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.444040844258239</v>
+        <v>2.44404084425824</v>
       </c>
       <c r="C5">
         <v>1.705018684914926</v>
       </c>
       <c r="D5">
-        <v>1.446166112413758</v>
+        <v>1.446166112413757</v>
       </c>
       <c r="E5">
         <v>1.349992015156981</v>
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.451383197835503</v>
+        <v>2.451383197835506</v>
       </c>
       <c r="C6">
         <v>1.709059898859096</v>
       </c>
       <c r="D6">
-        <v>1.448580771627436</v>
+        <v>1.448580771627434</v>
       </c>
       <c r="E6">
-        <v>1.351843737668598</v>
+        <v>1.351843737668599</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.44341887967167</v>
+        <v>2.443418879671671</v>
       </c>
       <c r="C7">
         <v>1.705004603960501</v>
       </c>
       <c r="D7">
-        <v>1.460838994595111</v>
+        <v>1.46083899459511</v>
       </c>
       <c r="E7">
-        <v>1.349955890124776</v>
+        <v>1.349955890124775</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,7 +490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.426137845639802</v>
+        <v>2.4261378456398</v>
       </c>
       <c r="C8">
         <v>1.691113062267858</v>
@@ -499,7 +499,7 @@
         <v>1.463289021859106</v>
       </c>
       <c r="E8">
-        <v>1.340676964773855</v>
+        <v>1.340676964773854</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -510,13 +510,13 @@
         <v>2.437293282939875</v>
       </c>
       <c r="C9">
-        <v>1.699213878649833</v>
+        <v>1.699213878649834</v>
       </c>
       <c r="D9">
-        <v>1.455487230471159</v>
+        <v>1.455487230471161</v>
       </c>
       <c r="E9">
-        <v>1.345344167322881</v>
+        <v>1.34534416732288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.354271173204167</v>
+        <v>2.354271173204168</v>
       </c>
       <c r="C10">
         <v>1.667191889118646</v>
@@ -533,7 +533,7 @@
         <v>1.444906915254569</v>
       </c>
       <c r="E10">
-        <v>1.339021721330763</v>
+        <v>1.339021721330762</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.358096505327883</v>
+        <v>2.358096505327884</v>
       </c>
       <c r="C11">
         <v>1.671843872822301</v>
@@ -550,7 +550,7 @@
         <v>1.447518338027816</v>
       </c>
       <c r="E11">
-        <v>1.340293742975246</v>
+        <v>1.340293742975245</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -575,10 +575,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.342009859240121</v>
+        <v>2.342009859240122</v>
       </c>
       <c r="C13">
-        <v>1.659963471116276</v>
+        <v>1.659963471116275</v>
       </c>
       <c r="D13">
         <v>1.440926698548765</v>
